--- a/biology/Médecine/Joseph_Teissier/Joseph_Teissier.xlsx
+++ b/biology/Médecine/Joseph_Teissier/Joseph_Teissier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Teissier ou Louis Anne Marie Joseph Teissier, né à Lyon le 1er octobre 1851 où il est mort dans le 5e arrondissement le 13 juin 1926[1], est un médecin français connu pour la rédaction d'un important « Traité de pathologie interne » avec Alphonse Laveran.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Teissier ou Louis Anne Marie Joseph Teissier, né à Lyon le 1er octobre 1851 où il est mort dans le 5e arrondissement le 13 juin 1926, est un médecin français connu pour la rédaction d'un important « Traité de pathologie interne » avec Alphonse Laveran.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études de médecine à la Faculté de médecine de Lyon, est reçu médecin en 1876 avec une thèse sur le Diabète phosphaturique, passe son agrégation à Paris en 1878. Nommé médecin des Hôpitaux l'année suivante à Lyon, il attendra 1884 pour devenir professeur de pathologie interne à la Faculté de Lyon. En 1907, il enseigne la clinique médicale à l'Hôtel-Dieu[2]. En 1889, il est élu membre de l'académie des Sciences, Belles-Lettres et Arts de Lyon[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études de médecine à la Faculté de médecine de Lyon, est reçu médecin en 1876 avec une thèse sur le Diabète phosphaturique, passe son agrégation à Paris en 1878. Nommé médecin des Hôpitaux l'année suivante à Lyon, il attendra 1884 pour devenir professeur de pathologie interne à la Faculté de Lyon. En 1907, il enseigne la clinique médicale à l'Hôtel-Dieu. En 1889, il est élu membre de l'académie des Sciences, Belles-Lettres et Arts de Lyon. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Albuminuries curables, J.B. Baillière, 1900, 96 p. (1ère Edition)
 Les Albuminuries curables, t. 1, Paris, J.-B. Baillière, 1919, 96 p. lire en ligne sur Gallica.
@@ -577,9 +593,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Joseph Teissier est[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Joseph Teissier est :
  Officier de l'Instruction publique.
  Officier de la Légion d'honneur.
  Commandeur de l'Ordre de Léopold.
